--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il1a-Il1r1.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>85.548028</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H2">
-        <v>256.644084</v>
+        <v>0.068609</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.23954733333333</v>
+        <v>6.382924</v>
       </c>
       <c r="N2">
-        <v>30.718642</v>
+        <v>19.148772</v>
       </c>
       <c r="O2">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="P2">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="Q2">
-        <v>875.9730819793252</v>
+        <v>0.1459753442386667</v>
       </c>
       <c r="R2">
-        <v>7883.757737813929</v>
+        <v>1.313778098148</v>
       </c>
       <c r="S2">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
       <c r="T2">
-        <v>0.2020379585860964</v>
+        <v>0.1363153751023214</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>85.548028</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H3">
-        <v>256.644084</v>
+        <v>0.068609</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>88.018812</v>
       </c>
       <c r="O3">
-        <v>0.5789038816772371</v>
+        <v>0.6265841681043937</v>
       </c>
       <c r="P3">
-        <v>0.5789038816772369</v>
+        <v>0.6265841681043938</v>
       </c>
       <c r="Q3">
-        <v>2509.945264500912</v>
+        <v>0.6709869636119999</v>
       </c>
       <c r="R3">
-        <v>22589.50738050821</v>
+        <v>6.038882672508</v>
       </c>
       <c r="S3">
-        <v>0.5789038816772371</v>
+        <v>0.6265841681043937</v>
       </c>
       <c r="T3">
-        <v>0.5789038816772369</v>
+        <v>0.6265841681043938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>85.548028</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H4">
-        <v>256.644084</v>
+        <v>0.068609</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>33.30646</v>
       </c>
       <c r="O4">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="P4">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="Q4">
-        <v>949.7673242202934</v>
+        <v>0.2539025460155556</v>
       </c>
       <c r="R4">
-        <v>8547.905917982642</v>
+        <v>2.28512291414</v>
       </c>
       <c r="S4">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
       <c r="T4">
-        <v>0.2190581597366666</v>
+        <v>0.2371004567932849</v>
       </c>
     </row>
   </sheetData>
